--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -4,23 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="140" windowWidth="19140" windowHeight="7090" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$1:$C$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet6!$F$4:$F$102</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="272">
   <si>
     <t>id</t>
   </si>
@@ -833,6 +836,9 @@
   </si>
   <si>
     <t>Beet Seed</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -842,7 +848,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,6 +862,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -879,11 +891,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1188,11 +1203,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K168" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4:S190"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5.81640625" customWidth="1"/>
     <col min="2" max="2" width="23.6328125" customWidth="1"/>
@@ -1203,7 +1218,7 @@
     <col min="8" max="8" width="9.81640625" customWidth="1"/>
     <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7265625" customWidth="1"/>
-    <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.81640625" customWidth="1"/>
     <col min="13" max="13" width="6.54296875" customWidth="1"/>
     <col min="14" max="14" width="7.453125" customWidth="1"/>
@@ -1211,10 +1226,10 @@
     <col min="16" max="16" width="31.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="1.26953125" customWidth="1"/>
     <col min="18" max="18" width="2.08984375" customWidth="1"/>
-    <col min="19" max="19" width="87.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="106.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19">
       <c r="B1" t="s">
         <v>40</v>
       </c>
@@ -1255,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +1314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1359,7 +1374,7 @@
         <v>inventoryDatabase.insert(Inventory(0,"Pepper Seed","seed",9,0,0,0,60000,1,10,"Pepper",1,0,0))</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1419,7 +1434,7 @@
         <v>inventoryDatabase.insert(Inventory(1,"Carrot Seed","seed",18,0,0,0,120000,2,10,"Carrot",1,0,0))</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1479,7 +1494,7 @@
         <v>inventoryDatabase.insert(Inventory(2,"Pea Seed","seed",29,0,0,0,180000,4,0,"Pea",1,0,0))</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1539,7 +1554,7 @@
         <v>inventoryDatabase.insert(Inventory(3,"Cucumber Seed","seed",38,0,0,0,240000,6,0,"Cucumber",1,0,0))</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1599,7 +1614,7 @@
         <v>inventoryDatabase.insert(Inventory(4,"Eggplant Seed","seed",47,0,0,0,300000,8,0,"Eggplant",1,0,0))</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1659,7 +1674,7 @@
         <v>inventoryDatabase.insert(Inventory(5,"Radish Seed","seed",100,0,0,0,600000,10,0,"Radish",1,0,0))</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1719,7 +1734,7 @@
         <v>inventoryDatabase.insert(Inventory(6,"Onion Seed","seed",159,0,0,0,900000,12,0,"Onion",1,0,0))</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1779,7 +1794,7 @@
         <v>inventoryDatabase.insert(Inventory(7,"Hops Seed","seed",212,0,0,0,1200000,14,0,"Hops",1,0,0))</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1839,7 +1854,7 @@
         <v>inventoryDatabase.insert(Inventory(8,"Patato Seed","seed",267,0,0,0,1500000,16,0,"Patato",1,0,0))</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1899,7 +1914,7 @@
         <v>inventoryDatabase.insert(Inventory(9,"Tomato Seed","seed",330,0,0,0,1800000,18,0,"Tomato",1,0,0))</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1959,7 +1974,7 @@
         <v>inventoryDatabase.insert(Inventory(10,"Leek Seed","seed",680,0,0,0,3600000,20,0,"Leek",1,0,0))</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2019,7 +2034,7 @@
         <v>inventoryDatabase.insert(Inventory(11,"Watermelon Seed","seed",1400,0,0,0,7200000,23,0,"Watermelon",1,0,0))</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2079,7 +2094,7 @@
         <v>inventoryDatabase.insert(Inventory(12,"Corn Seed","seed",2960,0,0,0,14400000,26,0,"Corn",1,0,0))</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2139,7 +2154,7 @@
         <v>inventoryDatabase.insert(Inventory(13,"Cabbage Seed","seed",6080,0,0,0,28800000,30,0,"Cabbage",1,0,0))</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2199,7 +2214,7 @@
         <v>inventoryDatabase.insert(Inventory(14,"Pumpkin Seed","seed",9360,0,0,0,43200000,40,0,"Pumpkin",1,0,0))</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>15</v>
       </c>
@@ -2259,7 +2274,7 @@
         <v>inventoryDatabase.insert(Inventory(15,"Wheat Seed","seed",19440,0,0,0,86400000,50,0,"Wheat",1,0,0))</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>16</v>
       </c>
@@ -2319,7 +2334,7 @@
         <v>inventoryDatabase.insert(Inventory(16,"Broccoli Seed","seed",42880,0,0,0,172800000,60,0,"Broccoli",1,0,0))</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>17</v>
       </c>
@@ -2379,7 +2394,7 @@
         <v>inventoryDatabase.insert(Inventory(17,"Cotton Seed","seed",84000,0,0,0,345600000,70,0,"Cotton",1,0,0))</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>18</v>
       </c>
@@ -2439,7 +2454,7 @@
         <v>inventoryDatabase.insert(Inventory(18,"Sunflower Seed","seed",126000,0,0,0,518400000,80,0,"Sunflower",1,0,0))</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>19</v>
       </c>
@@ -2499,7 +2514,7 @@
         <v>inventoryDatabase.insert(Inventory(19,"Beet Seed","seed",189000,0,0,0,777600000,90,0,"Beet",1,0,0))</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>20000</v>
       </c>
@@ -2559,7 +2574,7 @@
         <v>inventoryDatabase.insert(Inventory(20000,"Pepper","crop",0,10,0,10,0,0,0,"Pepper Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>20001</v>
       </c>
@@ -2619,7 +2634,7 @@
         <v>inventoryDatabase.insert(Inventory(20001,"Carrot","crop",0,20,0,20,0,0,0,"Carrot Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>20002</v>
       </c>
@@ -2679,7 +2694,7 @@
         <v>inventoryDatabase.insert(Inventory(20002,"Pea","crop",0,32,0,30,0,0,0,"Pea Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>20003</v>
       </c>
@@ -2739,7 +2754,7 @@
         <v>inventoryDatabase.insert(Inventory(20003,"Cucumber","crop",0,42,0,40,0,0,0,"Cucumber Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>20004</v>
       </c>
@@ -2799,7 +2814,7 @@
         <v>inventoryDatabase.insert(Inventory(20004,"Eggplant","crop",0,53,0,50,0,0,0,"Eggplant Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>20005</v>
       </c>
@@ -2859,7 +2874,7 @@
         <v>inventoryDatabase.insert(Inventory(20005,"Radish","crop",0,113,0,100,0,0,0,"Radish Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>20006</v>
       </c>
@@ -2919,7 +2934,7 @@
         <v>inventoryDatabase.insert(Inventory(20006,"Onion","crop",0,180,0,150,0,0,0,"Onion Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>20007</v>
       </c>
@@ -2979,7 +2994,7 @@
         <v>inventoryDatabase.insert(Inventory(20007,"Hops","crop",0,240,0,200,0,0,0,"Hops Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>20008</v>
       </c>
@@ -3039,7 +3054,7 @@
         <v>inventoryDatabase.insert(Inventory(20008,"Patato","crop",0,303,0,250,0,0,0,"Patato Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>20009</v>
       </c>
@@ -3099,7 +3114,7 @@
         <v>inventoryDatabase.insert(Inventory(20009,"Tomato","crop",0,375,0,300,0,0,0,"Tomato Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>20010</v>
       </c>
@@ -3159,7 +3174,7 @@
         <v>inventoryDatabase.insert(Inventory(20010,"Leek","crop",0,775,0,600,0,0,0,"Leek Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>20011</v>
       </c>
@@ -3219,7 +3234,7 @@
         <v>inventoryDatabase.insert(Inventory(20011,"Watermelon","crop",0,1600,0,840,0,0,0,"Watermelon Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>20012</v>
       </c>
@@ -3279,7 +3294,7 @@
         <v>inventoryDatabase.insert(Inventory(20012,"Corn","crop",0,3400,0,1680,0,0,0,"Corn Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>20013</v>
       </c>
@@ -3339,7 +3354,7 @@
         <v>inventoryDatabase.insert(Inventory(20013,"Cabbage","crop",0,7000,0,3360,0,0,0,"Cabbage Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>20014</v>
       </c>
@@ -3399,7 +3414,7 @@
         <v>inventoryDatabase.insert(Inventory(20014,"Pumpkin","crop",0,10800,0,5040,0,0,0,"Pumpkin Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>20015</v>
       </c>
@@ -3459,7 +3474,7 @@
         <v>inventoryDatabase.insert(Inventory(20015,"Wheat","crop",0,22500,0,10080,0,0,0,"Wheat Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>20016</v>
       </c>
@@ -3519,7 +3534,7 @@
         <v>inventoryDatabase.insert(Inventory(20016,"Broccoli","crop",0,50000,0,20160,0,0,0,"Broccoli Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>20017</v>
       </c>
@@ -3579,7 +3594,7 @@
         <v>inventoryDatabase.insert(Inventory(20017,"Cotton","crop",0,100000,0,40320,0,0,0,"Cotton Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>20018</v>
       </c>
@@ -3639,7 +3654,7 @@
         <v>inventoryDatabase.insert(Inventory(20018,"Sunflower","crop",0,153000,0,60480,0,0,0,"Sunflower Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>20019</v>
       </c>
@@ -3699,7 +3714,7 @@
         <v>inventoryDatabase.insert(Inventory(20019,"Beet","crop",0,23000,0,90720,0,0,0,"Beet Seed",0,1,0))</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>30000</v>
       </c>
@@ -3757,7 +3772,7 @@
         <v>inventoryDatabase.insert(Inventory(30000,"Iron","raw",50,0,0,10,5000,0,0,"",1,0,0))</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>30001</v>
       </c>
@@ -3815,7 +3830,7 @@
         <v>inventoryDatabase.insert(Inventory(30001,"Stone","raw",0,0,0,10,5000,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19">
       <c r="A46">
         <v>30002</v>
       </c>
@@ -3873,7 +3888,7 @@
         <v>inventoryDatabase.insert(Inventory(30002,"Straw","raw",0,0,0,150,75000,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>30003</v>
       </c>
@@ -3931,7 +3946,7 @@
         <v>inventoryDatabase.insert(Inventory(30003,"Nails","raw",1,0,0,1,500,0,0,"",1,0,0))</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>30004</v>
       </c>
@@ -3989,7 +4004,7 @@
         <v>inventoryDatabase.insert(Inventory(30004,"Feathers","raw",0,0,0,15,7500,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>30005</v>
       </c>
@@ -4047,7 +4062,7 @@
         <v>inventoryDatabase.insert(Inventory(30005,"Wood","raw",0,0,0,10,5000,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>30006</v>
       </c>
@@ -4104,7 +4119,7 @@
         <v>inventoryDatabase.insert(Inventory(30006,"3-leaf Clover","item",50,0,0,50,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>30007</v>
       </c>
@@ -4161,7 +4176,7 @@
         <v>inventoryDatabase.insert(Inventory(30007,"4-leaf Clover","item",2500,0,0,2000,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>30008</v>
       </c>
@@ -4218,7 +4233,7 @@
         <v>inventoryDatabase.insert(Inventory(30008,"Acorn","item",50,0,0,50,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>30009</v>
       </c>
@@ -4275,7 +4290,7 @@
         <v>inventoryDatabase.insert(Inventory(30009,"Amber","item",100000,0,0,5000,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>30010</v>
       </c>
@@ -4332,7 +4347,7 @@
         <v>inventoryDatabase.insert(Inventory(30010,"Amethyst","item",500,0,0,50,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19">
       <c r="A55">
         <v>30011</v>
       </c>
@@ -4389,7 +4404,7 @@
         <v>inventoryDatabase.insert(Inventory(30011,"Ancient Coin","item",1000,0,0,1000,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19">
       <c r="A56">
         <v>30012</v>
       </c>
@@ -4446,7 +4461,7 @@
         <v>inventoryDatabase.insert(Inventory(30012,"Antler","item",250,0,0,250,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19">
       <c r="A57">
         <v>30013</v>
       </c>
@@ -4503,7 +4518,7 @@
         <v>inventoryDatabase.insert(Inventory(30013,"Apple","item",50,0,0,25,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>30014</v>
       </c>
@@ -4560,7 +4575,7 @@
         <v>inventoryDatabase.insert(Inventory(30014,"Aquamarine","item",250,0,0,250,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>30015</v>
       </c>
@@ -4617,7 +4632,7 @@
         <v>inventoryDatabase.insert(Inventory(30015,"Arrowhead","item",150,0,0,150,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>30016</v>
       </c>
@@ -4674,7 +4689,7 @@
         <v>inventoryDatabase.insert(Inventory(30016,"Bacon","item",5000,0,0,2500,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>30017</v>
       </c>
@@ -4731,7 +4746,7 @@
         <v>inventoryDatabase.insert(Inventory(30017,"Bird Egg","item",300,0,0,300,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19">
       <c r="A62">
         <v>30018</v>
       </c>
@@ -4788,7 +4803,7 @@
         <v>inventoryDatabase.insert(Inventory(30018,"Blue Feathers","item",10,0,0,150,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19">
       <c r="A63">
         <v>30019</v>
       </c>
@@ -4845,7 +4860,7 @@
         <v>inventoryDatabase.insert(Inventory(30019,"Bone","item",150,0,0,150,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19">
       <c r="A64">
         <v>30020</v>
       </c>
@@ -4902,7 +4917,7 @@
         <v>inventoryDatabase.insert(Inventory(30020,"Carbon Sphere","item",500,0,0,200,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19">
       <c r="A65">
         <v>30021</v>
       </c>
@@ -4959,7 +4974,7 @@
         <v>inventoryDatabase.insert(Inventory(30021,"Coal","item",50,0,0,50,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19">
       <c r="A66">
         <v>30022</v>
       </c>
@@ -5016,7 +5031,7 @@
         <v>inventoryDatabase.insert(Inventory(30022,"Diamond","item",100000,0,0,5000,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19">
       <c r="A67">
         <v>30023</v>
       </c>
@@ -5073,7 +5088,7 @@
         <v>inventoryDatabase.insert(Inventory(30023,"Dice","item",1750,0,0,1750,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19">
       <c r="A68">
         <v>30024</v>
       </c>
@@ -5130,7 +5145,7 @@
         <v>inventoryDatabase.insert(Inventory(30024,"Emberstone","item",500,0,0,500,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19">
       <c r="A69">
         <v>30025</v>
       </c>
@@ -5187,7 +5202,7 @@
         <v>inventoryDatabase.insert(Inventory(30025,"Feathers","item",1,0,0,15,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19">
       <c r="A70">
         <v>30026</v>
       </c>
@@ -5244,7 +5259,7 @@
         <v>inventoryDatabase.insert(Inventory(30026,"Fern Leaf","item",1,0,0,25,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19">
       <c r="A71">
         <v>30027</v>
       </c>
@@ -5301,7 +5316,7 @@
         <v>inventoryDatabase.insert(Inventory(30027,"Glass Orb","item",60,0,0,300,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19">
       <c r="A72">
         <v>30028</v>
       </c>
@@ -5358,7 +5373,7 @@
         <v>inventoryDatabase.insert(Inventory(30028,"Gold Feather","item",5000,0,0,1500,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19">
       <c r="A73">
         <v>30029</v>
       </c>
@@ -5415,7 +5430,7 @@
         <v>inventoryDatabase.insert(Inventory(30029,"Gold Leaf","item",5000,0,0,1500,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19">
       <c r="A74">
         <v>30030</v>
       </c>
@@ -5472,7 +5487,7 @@
         <v>inventoryDatabase.insert(Inventory(30030,"Herbs","item",3500,0,0,3500,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19">
       <c r="A75">
         <v>30031</v>
       </c>
@@ -5529,7 +5544,7 @@
         <v>inventoryDatabase.insert(Inventory(30031,"Hide","item",150,0,0,150,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19">
       <c r="A76">
         <v>30032</v>
       </c>
@@ -5586,7 +5601,7 @@
         <v>inventoryDatabase.insert(Inventory(30032,"Horn","item",250,0,0,250,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19">
       <c r="A77">
         <v>30033</v>
       </c>
@@ -5643,7 +5658,7 @@
         <v>inventoryDatabase.insert(Inventory(30033,"Lemon","item",25,0,0,25,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19">
       <c r="A78">
         <v>30034</v>
       </c>
@@ -5700,7 +5715,7 @@
         <v>inventoryDatabase.insert(Inventory(30034,"Lemon Quartz","item",350,0,0,100,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19">
       <c r="A79">
         <v>30035</v>
       </c>
@@ -5757,7 +5772,7 @@
         <v>inventoryDatabase.insert(Inventory(30035,"Magicite","item",25000,0,0,3000,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19">
       <c r="A80">
         <v>30036</v>
       </c>
@@ -5814,7 +5829,7 @@
         <v>inventoryDatabase.insert(Inventory(30036,"Magna Quartz","item",2500,0,0,2500,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19">
       <c r="A81">
         <v>30037</v>
       </c>
@@ -5871,7 +5886,7 @@
         <v>inventoryDatabase.insert(Inventory(30037,"Moonstone","item",10000,0,0,1500,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19">
       <c r="A82">
         <v>30038</v>
       </c>
@@ -5928,7 +5943,7 @@
         <v>inventoryDatabase.insert(Inventory(30038,"Mushroom","item",1,0,0,10,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19">
       <c r="A83">
         <v>30039</v>
       </c>
@@ -5985,7 +6000,7 @@
         <v>inventoryDatabase.insert(Inventory(30039,"Oak","item",100,0,0,100,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19">
       <c r="A84">
         <v>30040</v>
       </c>
@@ -6042,7 +6057,7 @@
         <v>inventoryDatabase.insert(Inventory(30040,"Orange","item",25,0,0,25,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19">
       <c r="A85">
         <v>30041</v>
       </c>
@@ -6099,7 +6114,7 @@
         <v>inventoryDatabase.insert(Inventory(30041,"Pine Cone","item",300,0,0,300,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19">
       <c r="A86">
         <v>30042</v>
       </c>
@@ -6156,7 +6171,7 @@
         <v>inventoryDatabase.insert(Inventory(30042,"Pocket Watch","item",1750,0,0,1750,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19">
       <c r="A87">
         <v>30043</v>
       </c>
@@ -6213,7 +6228,7 @@
         <v>inventoryDatabase.insert(Inventory(30043,"Prism Shard","item",2500,0,0,500,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19">
       <c r="A88">
         <v>30044</v>
       </c>
@@ -6270,7 +6285,7 @@
         <v>inventoryDatabase.insert(Inventory(30044,"Purple Flower","item",1,0,0,15,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19">
       <c r="A89">
         <v>30045</v>
       </c>
@@ -6327,7 +6342,7 @@
         <v>inventoryDatabase.insert(Inventory(30045,"Red Berries","item",1000,0,0,1500,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19">
       <c r="A90">
         <v>30046</v>
       </c>
@@ -6384,7 +6399,7 @@
         <v>inventoryDatabase.insert(Inventory(30046,"Salt Rock","item",500,0,0,500,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19">
       <c r="A91">
         <v>30047</v>
       </c>
@@ -6441,7 +6456,7 @@
         <v>inventoryDatabase.insert(Inventory(30047,"Sandstone","item",50,0,0,50,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19">
       <c r="A92">
         <v>30048</v>
       </c>
@@ -6498,7 +6513,7 @@
         <v>inventoryDatabase.insert(Inventory(30048,"Shimmer Quartz","item",450,0,0,125,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19">
       <c r="A93">
         <v>30049</v>
       </c>
@@ -6555,7 +6570,7 @@
         <v>inventoryDatabase.insert(Inventory(30049,"Skull Coin","item",100000,0,0,5000,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19">
       <c r="A94">
         <v>30050</v>
       </c>
@@ -6612,7 +6627,7 @@
         <v>inventoryDatabase.insert(Inventory(30050,"Slimestone","item",150,0,0,150,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19">
       <c r="A95">
         <v>30051</v>
       </c>
@@ -6669,7 +6684,7 @@
         <v>inventoryDatabase.insert(Inventory(30051,"Sour Root","item",1000,0,0,1500,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19">
       <c r="A96">
         <v>30052</v>
       </c>
@@ -6726,7 +6741,7 @@
         <v>inventoryDatabase.insert(Inventory(30052,"Spectacles","item",1750,0,0,1750,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19">
       <c r="A97">
         <v>30053</v>
       </c>
@@ -6783,7 +6798,7 @@
         <v>inventoryDatabase.insert(Inventory(30053,"Star","item",1000,0,0,1750,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19">
       <c r="A98">
         <v>30054</v>
       </c>
@@ -6840,7 +6855,7 @@
         <v>inventoryDatabase.insert(Inventory(30054,"Stone","item",1,0,0,10,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19">
       <c r="A99">
         <v>30055</v>
       </c>
@@ -6897,7 +6912,7 @@
         <v>inventoryDatabase.insert(Inventory(30055,"Strange Letter","item",2000,0,0,2000,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19">
       <c r="A100">
         <v>30056</v>
       </c>
@@ -6954,7 +6969,7 @@
         <v>inventoryDatabase.insert(Inventory(30056,"Striped Feather","item",1000,0,0,1500,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19">
       <c r="A101">
         <v>30057</v>
       </c>
@@ -7011,7 +7026,7 @@
         <v>inventoryDatabase.insert(Inventory(30057,"Sweet Root","item",50,0,0,50,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19">
       <c r="A102">
         <v>30058</v>
       </c>
@@ -7068,7 +7083,7 @@
         <v>inventoryDatabase.insert(Inventory(30058,"Thorns","item",1000,0,0,1500,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19">
       <c r="A103">
         <v>30059</v>
       </c>
@@ -7125,7 +7140,7 @@
         <v>inventoryDatabase.insert(Inventory(30059,"Unpolished Emerald","item",750,0,0,250,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19">
       <c r="A104">
         <v>30060</v>
       </c>
@@ -7182,7 +7197,7 @@
         <v>inventoryDatabase.insert(Inventory(30060,"Unpolished Garnet","item",5000,0,0,5000,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19">
       <c r="A105">
         <v>30061</v>
       </c>
@@ -7239,7 +7254,7 @@
         <v>inventoryDatabase.insert(Inventory(30061,"Unpolished Ruby","item",500,0,0,150,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19">
       <c r="A106">
         <v>30062</v>
       </c>
@@ -7296,7 +7311,7 @@
         <v>inventoryDatabase.insert(Inventory(30062,"Unpolished Shimmer Stone","item",10,0,0,50,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19">
       <c r="A107">
         <v>30063</v>
       </c>
@@ -7353,7 +7368,7 @@
         <v>inventoryDatabase.insert(Inventory(30063,"Wooden Mask","item",1750,0,0,1750,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19">
       <c r="A108">
         <v>30064</v>
       </c>
@@ -7410,7 +7425,7 @@
         <v>inventoryDatabase.insert(Inventory(30064,"Yarn","item",250,0,0,1750,0,0,0,"",0,0,0))</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19">
       <c r="A109">
         <v>40000</v>
       </c>
@@ -7469,7 +7484,7 @@
         <v>inventoryDatabase.insert(Inventory(40000,"Amethyst Necklace","product",50,800,1,1000,500000,5,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19">
       <c r="A110">
         <v>40001</v>
       </c>
@@ -7477,7 +7492,7 @@
         <v>124</v>
       </c>
       <c r="C110" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="D110">
         <v>5000</v>
@@ -7509,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O110" t="s">
         <v>39</v>
@@ -7525,10 +7540,10 @@
       </c>
       <c r="S110" t="str">
         <f t="shared" si="2"/>
-        <v>inventoryDatabase.insert(Inventory(40001,"Apple Cider","product",5000,5000,5,100,50000,30,0,"",0,1,0))</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+        <v>inventoryDatabase.insert(Inventory(40001,"Apple Cider","food",5000,5000,5,100,50000,30,0,"",0,1,1000))</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111">
         <v>40002</v>
       </c>
@@ -7587,7 +7602,7 @@
         <v>inventoryDatabase.insert(Inventory(40002,"Aquamarine Ring","product",50,750,1,1000,500000,5,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19">
       <c r="A112">
         <v>40003</v>
       </c>
@@ -7646,7 +7661,7 @@
         <v>inventoryDatabase.insert(Inventory(40003,"Axe","product",25,200,1,450,225000,3,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19">
       <c r="A113">
         <v>40004</v>
       </c>
@@ -7705,7 +7720,7 @@
         <v>inventoryDatabase.insert(Inventory(40004,"Black Powder","product",50,60,1,1500,750000,12,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19">
       <c r="A114">
         <v>40005</v>
       </c>
@@ -7764,7 +7779,7 @@
         <v>inventoryDatabase.insert(Inventory(40005,"Board","product",1,30,1,25,12500,1,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19">
       <c r="A115">
         <v>40006</v>
       </c>
@@ -7823,7 +7838,7 @@
         <v>inventoryDatabase.insert(Inventory(40006,"Bottle Rocket","product",100,150,1,300,150000,12,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19">
       <c r="A116">
         <v>40007</v>
       </c>
@@ -7882,7 +7897,7 @@
         <v>inventoryDatabase.insert(Inventory(40007,"Broom","product",15,300,1,250,125000,3,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19">
       <c r="A117">
         <v>40008</v>
       </c>
@@ -7941,7 +7956,7 @@
         <v>inventoryDatabase.insert(Inventory(40008,"Bucket","product",5,90,1,250,125000,1,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19">
       <c r="A118">
         <v>40010</v>
       </c>
@@ -8000,7 +8015,7 @@
         <v>inventoryDatabase.insert(Inventory(40010,"Coin Purse","product",25,250,1,750,375000,8,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19">
       <c r="A119">
         <v>40011</v>
       </c>
@@ -8059,7 +8074,7 @@
         <v>inventoryDatabase.insert(Inventory(40011,"Compass","product",250000,100000,100,50000,25000000,70,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19">
       <c r="A120">
         <v>40012</v>
       </c>
@@ -8118,7 +8133,7 @@
         <v>inventoryDatabase.insert(Inventory(40012,"Emerald","product",100,2000,2,450,225000,10,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19">
       <c r="A121">
         <v>40013</v>
       </c>
@@ -8177,7 +8192,7 @@
         <v>inventoryDatabase.insert(Inventory(40013,"Emerald Ring","product",300,2500,3,2500,1250000,15,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19">
       <c r="A122">
         <v>40014</v>
       </c>
@@ -8236,7 +8251,7 @@
         <v>inventoryDatabase.insert(Inventory(40014,"Explosive","product",100,300,1,350,175000,14,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19">
       <c r="A123">
         <v>40015</v>
       </c>
@@ -8295,7 +8310,7 @@
         <v>inventoryDatabase.insert(Inventory(40015,"Fancy Guitar","product",8550,65000,65,55000,27500000,80,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19">
       <c r="A124">
         <v>40016</v>
       </c>
@@ -8354,7 +8369,7 @@
         <v>inventoryDatabase.insert(Inventory(40016,"Fancy Pipe","product",150,5000,5,5000,2500000,46,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19">
       <c r="A125">
         <v>40017</v>
       </c>
@@ -8413,7 +8428,7 @@
         <v>inventoryDatabase.insert(Inventory(40017,"Fishing Net","product",100,1000,1,1500,750000,19,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19">
       <c r="A126">
         <v>40018</v>
       </c>
@@ -8472,7 +8487,7 @@
         <v>inventoryDatabase.insert(Inventory(40018,"Flywheel","product",50000,10000,10,2500,1250000,50,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19">
       <c r="A127">
         <v>40019</v>
       </c>
@@ -8531,7 +8546,7 @@
         <v>inventoryDatabase.insert(Inventory(40019,"Garnet","product",750,15000,15,15000,7500000,43,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19">
       <c r="A128">
         <v>40020</v>
       </c>
@@ -8590,7 +8605,7 @@
         <v>inventoryDatabase.insert(Inventory(40020,"Garnet Ring","product",1500,30000,30,30000,15000000,51,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19">
       <c r="A129">
         <v>40021</v>
       </c>
@@ -8649,7 +8664,7 @@
         <v>inventoryDatabase.insert(Inventory(40021,"Glass Bottle","product",25,10,1,150,75000,5,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19">
       <c r="A130">
         <v>40022</v>
       </c>
@@ -8708,7 +8723,7 @@
         <v>inventoryDatabase.insert(Inventory(40022,"Glass Orb","product",10,60,1,300,150000,5,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19">
       <c r="A131">
         <v>40023</v>
       </c>
@@ -8767,7 +8782,7 @@
         <v>inventoryDatabase.insert(Inventory(40023,"Grape Juice","product",500,10000,10,100,50000,1,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19">
       <c r="A132">
         <v>40024</v>
       </c>
@@ -8826,7 +8841,7 @@
         <v>inventoryDatabase.insert(Inventory(40024,"Green Cloak","product",2500,125000,125,125000,62500000,55,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19">
       <c r="A133">
         <v>40025</v>
       </c>
@@ -8885,7 +8900,7 @@
         <v>inventoryDatabase.insert(Inventory(40025,"Green Diary","product",10,150,1,200,100000,6,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19">
       <c r="A134">
         <v>40026</v>
       </c>
@@ -8944,7 +8959,7 @@
         <v>inventoryDatabase.insert(Inventory(40026,"Green Dye","product",2,35,1,500,250000,5,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19">
       <c r="A135">
         <v>40027</v>
       </c>
@@ -9003,7 +9018,7 @@
         <v>inventoryDatabase.insert(Inventory(40027,"Green Parchment","product",2,50,1,100,50000,2,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19">
       <c r="A136">
         <v>40029</v>
       </c>
@@ -9062,7 +9077,7 @@
         <v>inventoryDatabase.insert(Inventory(40029,"Green Shield","product",500,5500,6,5500,2750000,30,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19">
       <c r="A137">
         <v>40030</v>
       </c>
@@ -9121,7 +9136,7 @@
         <v>inventoryDatabase.insert(Inventory(40030,"Hammer","product",10,150,1,350,175000,2,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19">
       <c r="A138">
         <v>40031</v>
       </c>
@@ -9180,7 +9195,7 @@
         <v>inventoryDatabase.insert(Inventory(40031,"Horn Canteen","product",150,2500,3,2500,1250000,16,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19">
       <c r="A139">
         <v>40032</v>
       </c>
@@ -9239,7 +9254,7 @@
         <v>inventoryDatabase.insert(Inventory(40032,"Horseshoe","product",100,1000,1,1000,500000,24,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19">
       <c r="A140">
         <v>40033</v>
       </c>
@@ -9298,7 +9313,7 @@
         <v>inventoryDatabase.insert(Inventory(40033,"Hourglass","product",2000,25000,25,25000,12500000,59,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19">
       <c r="A141">
         <v>40034</v>
       </c>
@@ -9357,7 +9372,7 @@
         <v>inventoryDatabase.insert(Inventory(40034,"Inferno Sphere","product",1000000,2000000,2000,50000,25000000,22,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19">
       <c r="A142">
         <v>40035</v>
       </c>
@@ -9416,7 +9431,7 @@
         <v>inventoryDatabase.insert(Inventory(40035,"Iron Cup","product",15,165,1,100,50000,1,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19">
       <c r="A143">
         <v>40036</v>
       </c>
@@ -9475,7 +9490,7 @@
         <v>inventoryDatabase.insert(Inventory(40036,"Iron Ring","product",10,110,1,25,12500,4,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19">
       <c r="A144">
         <v>40037</v>
       </c>
@@ -9534,7 +9549,7 @@
         <v>inventoryDatabase.insert(Inventory(40037,"Jade","product",500,5000,5,3000,1500000,33,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19">
       <c r="A145">
         <v>40038</v>
       </c>
@@ -9593,7 +9608,7 @@
         <v>inventoryDatabase.insert(Inventory(40038,"Jade Charm","product",1000,15000,15,8000,4000000,42,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19">
       <c r="A146">
         <v>40039</v>
       </c>
@@ -9652,7 +9667,7 @@
         <v>inventoryDatabase.insert(Inventory(40039,"Ladder","product",10,500,1,500,250000,9,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19">
       <c r="A147">
         <v>40040</v>
       </c>
@@ -9711,7 +9726,7 @@
         <v>inventoryDatabase.insert(Inventory(40040,"Lantern","product",4000,40000,40,40000,20000000,70,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19">
       <c r="A148">
         <v>40041</v>
       </c>
@@ -9770,7 +9785,7 @@
         <v>inventoryDatabase.insert(Inventory(40041,"Lava Sphere","product",2000000,4000000,4000,150000,75000000,35,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19">
       <c r="A149">
         <v>40042</v>
       </c>
@@ -9829,7 +9844,7 @@
         <v>inventoryDatabase.insert(Inventory(40042,"Leather","product",25,250,1,250,125000,1,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19">
       <c r="A150">
         <v>40043</v>
       </c>
@@ -9888,7 +9903,7 @@
         <v>inventoryDatabase.insert(Inventory(40043,"Leather Bag","product",250,3000,3,3000,1500000,17,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19">
       <c r="A151">
         <v>40044</v>
       </c>
@@ -9947,7 +9962,7 @@
         <v>inventoryDatabase.insert(Inventory(40044,"Leather Diary","product",25,250,1,250,125000,8,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19">
       <c r="A152">
         <v>40045</v>
       </c>
@@ -10006,7 +10021,7 @@
         <v>inventoryDatabase.insert(Inventory(40045,"Leather Waterskin","product",275,3250,4,3250,1625000,18,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19">
       <c r="A153">
         <v>40046</v>
       </c>
@@ -10065,7 +10080,7 @@
         <v>inventoryDatabase.insert(Inventory(40046,"Lemon Quartz Ring","product",75,1500,2,1000,500000,7,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19">
       <c r="A154">
         <v>40047</v>
       </c>
@@ -10073,7 +10088,7 @@
         <v>169</v>
       </c>
       <c r="C154" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -10105,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="N154">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O154" t="s">
         <v>39</v>
@@ -10121,10 +10136,10 @@
       </c>
       <c r="S154" t="str">
         <f t="shared" si="5"/>
-        <v>inventoryDatabase.insert(Inventory(40047,"Lemonade","product",2,35,1,500,250000,5,0,"",0,1,0))</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+        <v>inventoryDatabase.insert(Inventory(40047,"Lemonade","food",2,35,1,500,250000,5,0,"",0,1,100))</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155">
         <v>40048</v>
       </c>
@@ -10183,7 +10198,7 @@
         <v>inventoryDatabase.insert(Inventory(40048,"Looking Glass","product",50,250,1,2500,1250000,8,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19">
       <c r="A156">
         <v>40049</v>
       </c>
@@ -10242,7 +10257,7 @@
         <v>inventoryDatabase.insert(Inventory(40049,"Magicite","product",5000,25000,25,3000,1500000,21,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19">
       <c r="A157">
         <v>40050</v>
       </c>
@@ -10301,7 +10316,7 @@
         <v>inventoryDatabase.insert(Inventory(40050,"Magna Core","product",500000,2000000,2000,50000,25000000,60,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19">
       <c r="A158">
         <v>40051</v>
       </c>
@@ -10360,7 +10375,7 @@
         <v>inventoryDatabase.insert(Inventory(40051,"Magnifying Glass","product",300,5250,6,5250,2625000,25,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19">
       <c r="A159">
         <v>40052</v>
       </c>
@@ -10419,7 +10434,7 @@
         <v>inventoryDatabase.insert(Inventory(40052,"Mushroom Paste","product",2,50,1,25,12500,3,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19">
       <c r="A160">
         <v>40053</v>
       </c>
@@ -10478,7 +10493,7 @@
         <v>inventoryDatabase.insert(Inventory(40053,"Mystic Ring","product",600,5000,5,5000,2500000,23,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19">
       <c r="A161">
         <v>40054</v>
       </c>
@@ -10486,7 +10501,7 @@
         <v>175</v>
       </c>
       <c r="C161" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -10518,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="N161">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O161" t="s">
         <v>39</v>
@@ -10534,10 +10549,10 @@
       </c>
       <c r="S161" t="str">
         <f t="shared" si="5"/>
-        <v>inventoryDatabase.insert(Inventory(40054,"Orange Juice","product",2,35,1,500,250000,5,0,"",0,1,0))</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+        <v>inventoryDatabase.insert(Inventory(40054,"Orange Juice","food",2,35,1,500,250000,5,0,"",0,1,500))</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162">
         <v>40055</v>
       </c>
@@ -10596,7 +10611,7 @@
         <v>inventoryDatabase.insert(Inventory(40055,"Pearl Necklace","product",100,1000,1,1000,500000,16,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19">
       <c r="A163">
         <v>40056</v>
       </c>
@@ -10655,7 +10670,7 @@
         <v>inventoryDatabase.insert(Inventory(40056,"Purple Diary","product",10,150,1,200,100000,6,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19">
       <c r="A164">
         <v>40057</v>
       </c>
@@ -10714,7 +10729,7 @@
         <v>inventoryDatabase.insert(Inventory(40057,"Purple Parchment","product",2,50,1,100,50000,2,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19">
       <c r="A165">
         <v>40058</v>
       </c>
@@ -10773,7 +10788,7 @@
         <v>inventoryDatabase.insert(Inventory(40058,"Rope","product",50,5,1,1500,750000,18,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19">
       <c r="A166">
         <v>40059</v>
       </c>
@@ -10832,7 +10847,7 @@
         <v>inventoryDatabase.insert(Inventory(40059,"Ruby","product",50,1500,2,350,175000,8,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19">
       <c r="A167">
         <v>40060</v>
       </c>
@@ -10891,7 +10906,7 @@
         <v>inventoryDatabase.insert(Inventory(40060,"Ruby Ring","product",100,2000,2,1500,750000,10,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19">
       <c r="A168">
         <v>40061</v>
       </c>
@@ -10950,7 +10965,7 @@
         <v>inventoryDatabase.insert(Inventory(40061,"Sand","product",750,500,1,250,125000,44,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19">
       <c r="A169">
         <v>40062</v>
       </c>
@@ -11009,7 +11024,7 @@
         <v>inventoryDatabase.insert(Inventory(40062,"Scissors","product",250,1750,2,1750,875000,37,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19">
       <c r="A170">
         <v>40063</v>
       </c>
@@ -11068,7 +11083,7 @@
         <v>inventoryDatabase.insert(Inventory(40063,"Shimmer Ring","product",1000,5000,5,5000,2500000,26,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19">
       <c r="A171">
         <v>40064</v>
       </c>
@@ -11127,7 +11142,7 @@
         <v>inventoryDatabase.insert(Inventory(40064,"Shimmer Stone","product",5,25,1,250,125000,4,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19">
       <c r="A172">
         <v>40065</v>
       </c>
@@ -11186,7 +11201,7 @@
         <v>inventoryDatabase.insert(Inventory(40065,"Shimmer Topaz","product",500,2500,3,2500,1250000,19,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19">
       <c r="A173">
         <v>40066</v>
       </c>
@@ -11245,7 +11260,7 @@
         <v>inventoryDatabase.insert(Inventory(40066,"Shovel","product",45,300,1,550,275000,4,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19">
       <c r="A174">
         <v>40068</v>
       </c>
@@ -11304,7 +11319,7 @@
         <v>inventoryDatabase.insert(Inventory(40068,"Steel","product",250,800,1,100,50000,15,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19">
       <c r="A175">
         <v>40069</v>
       </c>
@@ -11363,7 +11378,7 @@
         <v>inventoryDatabase.insert(Inventory(40069,"Steel Wire","product",100,2000,2,1000,500000,50,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19">
       <c r="A176">
         <v>40070</v>
       </c>
@@ -11422,7 +11437,7 @@
         <v>inventoryDatabase.insert(Inventory(40070,"Sturdy Box","product",15,275,1,500,250000,7,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19">
       <c r="A177">
         <v>40071</v>
       </c>
@@ -11481,7 +11496,7 @@
         <v>inventoryDatabase.insert(Inventory(40071,"Sturdy Shield","product",500,4000,4,4000,2000000,20,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19">
       <c r="A178">
         <v>40072</v>
       </c>
@@ -11540,7 +11555,7 @@
         <v>inventoryDatabase.insert(Inventory(40072,"Sturdy Sword","product",1500,11000,11,11000,5500000,45,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19">
       <c r="A179">
         <v>40073</v>
       </c>
@@ -11599,7 +11614,7 @@
         <v>inventoryDatabase.insert(Inventory(40073,"Treasure Chest","product",1000,7500,8,7500,3750000,32,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19">
       <c r="A180">
         <v>40074</v>
       </c>
@@ -11658,7 +11673,7 @@
         <v>inventoryDatabase.insert(Inventory(40074,"Twine","product",10,150,1,250,125000,5,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19">
       <c r="A181">
         <v>40075</v>
       </c>
@@ -11717,7 +11732,7 @@
         <v>inventoryDatabase.insert(Inventory(40075,"Unpolished Shimmer Stone","product",10,10,1,50,25000,65,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19">
       <c r="A182">
         <v>40076</v>
       </c>
@@ -11776,7 +11791,7 @@
         <v>inventoryDatabase.insert(Inventory(40076,"Wagon Wheel","product",250,1750,2,1750,875000,31,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19">
       <c r="A183">
         <v>40077</v>
       </c>
@@ -11835,7 +11850,7 @@
         <v>inventoryDatabase.insert(Inventory(40077,"White Parchment","product",2,50,1,100,50000,2,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19">
       <c r="A184">
         <v>40078</v>
       </c>
@@ -11894,7 +11909,7 @@
         <v>inventoryDatabase.insert(Inventory(40078,"Wine","product",250,1000,1,2000,1000000,1,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19">
       <c r="A185">
         <v>40079</v>
       </c>
@@ -11953,7 +11968,7 @@
         <v>inventoryDatabase.insert(Inventory(40079,"Wizard Hat","product",300,3300,4,3300,1650000,17,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19">
       <c r="A186">
         <v>40080</v>
       </c>
@@ -12012,7 +12027,7 @@
         <v>inventoryDatabase.insert(Inventory(40080,"Wood Plank","product",2,50,1,50,25000,1,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19">
       <c r="A187">
         <v>40081</v>
       </c>
@@ -12071,7 +12086,7 @@
         <v>inventoryDatabase.insert(Inventory(40081,"Wooden Barrel","product",25,315,1,350,175000,10,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19">
       <c r="A188">
         <v>40082</v>
       </c>
@@ -12130,7 +12145,7 @@
         <v>inventoryDatabase.insert(Inventory(40082,"Wooden Box","product",10,165,1,200,100000,1,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19">
       <c r="A189">
         <v>40083</v>
       </c>
@@ -12189,7 +12204,7 @@
         <v>inventoryDatabase.insert(Inventory(40083,"Wooden Shield","product",75,500,1,450,225000,13,0,"",0,1,0))</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19">
       <c r="A190">
         <v>40084</v>
       </c>
@@ -12259,16 +12274,20 @@
   <dimension ref="D3:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H88"/>
+      <selection activeCell="H4" sqref="D3:I88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:9">
       <c r="D3" t="s">
         <v>116</v>
       </c>
@@ -12288,7 +12307,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:9">
       <c r="D4" t="s">
         <v>122</v>
       </c>
@@ -12308,7 +12327,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:9">
       <c r="D5" t="s">
         <v>124</v>
       </c>
@@ -12328,7 +12347,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:9">
       <c r="D6" t="s">
         <v>125</v>
       </c>
@@ -12348,7 +12367,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:9">
       <c r="D7" t="s">
         <v>126</v>
       </c>
@@ -12368,7 +12387,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:9">
       <c r="D8" t="s">
         <v>127</v>
       </c>
@@ -12388,7 +12407,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:9">
       <c r="D9" t="s">
         <v>57</v>
       </c>
@@ -12408,7 +12427,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:9">
       <c r="D10" t="s">
         <v>128</v>
       </c>
@@ -12428,7 +12447,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:9">
       <c r="D11" t="s">
         <v>129</v>
       </c>
@@ -12448,7 +12467,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:9">
       <c r="D12" t="s">
         <v>130</v>
       </c>
@@ -12468,7 +12487,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:9">
       <c r="D13" t="s">
         <v>131</v>
       </c>
@@ -12488,7 +12507,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:9">
       <c r="D14" t="s">
         <v>132</v>
       </c>
@@ -12508,7 +12527,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:9">
       <c r="D15" t="s">
         <v>133</v>
       </c>
@@ -12528,7 +12547,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:9">
       <c r="D16" t="s">
         <v>135</v>
       </c>
@@ -12548,7 +12567,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:9">
       <c r="D17" t="s">
         <v>136</v>
       </c>
@@ -12568,7 +12587,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:9">
       <c r="D18" t="s">
         <v>137</v>
       </c>
@@ -12588,7 +12607,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:9">
       <c r="D19" t="s">
         <v>138</v>
       </c>
@@ -12608,7 +12627,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:9">
       <c r="D20" t="s">
         <v>139</v>
       </c>
@@ -12628,7 +12647,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:9">
       <c r="D21" t="s">
         <v>140</v>
       </c>
@@ -12648,7 +12667,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:9">
       <c r="D22" t="s">
         <v>141</v>
       </c>
@@ -12668,7 +12687,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:9">
       <c r="D23" t="s">
         <v>142</v>
       </c>
@@ -12688,7 +12707,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:9">
       <c r="D24" t="s">
         <v>143</v>
       </c>
@@ -12708,7 +12727,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:9">
       <c r="D25" t="s">
         <v>144</v>
       </c>
@@ -12728,7 +12747,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:9">
       <c r="D26" t="s">
         <v>66</v>
       </c>
@@ -12748,7 +12767,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:9">
       <c r="D27" t="s">
         <v>145</v>
       </c>
@@ -12768,7 +12787,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:9">
       <c r="D28" t="s">
         <v>146</v>
       </c>
@@ -12788,7 +12807,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:9">
       <c r="D29" t="s">
         <v>147</v>
       </c>
@@ -12808,7 +12827,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:9">
       <c r="D30" t="s">
         <v>148</v>
       </c>
@@ -12828,7 +12847,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:9">
       <c r="D31" t="s">
         <v>149</v>
       </c>
@@ -12848,7 +12867,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:9">
       <c r="D32" t="s">
         <v>150</v>
       </c>
@@ -12868,7 +12887,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:9">
       <c r="D33" t="s">
         <v>151</v>
       </c>
@@ -12888,7 +12907,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:9">
       <c r="D34" t="s">
         <v>152</v>
       </c>
@@ -12908,7 +12927,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:9">
       <c r="D35" t="s">
         <v>153</v>
       </c>
@@ -12928,7 +12947,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:9">
       <c r="D36" t="s">
         <v>154</v>
       </c>
@@ -12948,7 +12967,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:9">
       <c r="D37" t="s">
         <v>155</v>
       </c>
@@ -12968,7 +12987,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:9">
       <c r="D38" t="s">
         <v>156</v>
       </c>
@@ -12988,7 +13007,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:9">
       <c r="D39" t="s">
         <v>157</v>
       </c>
@@ -13008,7 +13027,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:9">
       <c r="D40" t="s">
         <v>158</v>
       </c>
@@ -13028,7 +13047,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:9">
       <c r="D41" t="s">
         <v>159</v>
       </c>
@@ -13048,7 +13067,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:9">
       <c r="D42" t="s">
         <v>160</v>
       </c>
@@ -13068,7 +13087,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:9">
       <c r="D43" t="s">
         <v>161</v>
       </c>
@@ -13088,7 +13107,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:9">
       <c r="D44" t="s">
         <v>162</v>
       </c>
@@ -13108,7 +13127,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:9">
       <c r="D45" t="s">
         <v>163</v>
       </c>
@@ -13128,7 +13147,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:9">
       <c r="D46" t="s">
         <v>164</v>
       </c>
@@ -13148,7 +13167,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:9">
       <c r="D47" t="s">
         <v>165</v>
       </c>
@@ -13168,7 +13187,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:9">
       <c r="D48" t="s">
         <v>166</v>
       </c>
@@ -13188,7 +13207,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:9">
       <c r="D49" t="s">
         <v>167</v>
       </c>
@@ -13208,7 +13227,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:9">
       <c r="D50" t="s">
         <v>168</v>
       </c>
@@ -13228,7 +13247,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:9">
       <c r="D51" t="s">
         <v>169</v>
       </c>
@@ -13248,7 +13267,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:9">
       <c r="D52" t="s">
         <v>170</v>
       </c>
@@ -13268,7 +13287,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:9">
       <c r="D53" t="s">
         <v>75</v>
       </c>
@@ -13288,7 +13307,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:9">
       <c r="D54" t="s">
         <v>171</v>
       </c>
@@ -13308,7 +13327,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:9">
       <c r="D55" t="s">
         <v>172</v>
       </c>
@@ -13328,7 +13347,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:9">
       <c r="D56" t="s">
         <v>173</v>
       </c>
@@ -13348,7 +13367,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:9">
       <c r="D57" t="s">
         <v>174</v>
       </c>
@@ -13368,7 +13387,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:9">
       <c r="D58" t="s">
         <v>175</v>
       </c>
@@ -13388,7 +13407,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:9">
       <c r="D59" t="s">
         <v>176</v>
       </c>
@@ -13408,7 +13427,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:9">
       <c r="D60" t="s">
         <v>177</v>
       </c>
@@ -13428,7 +13447,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:9">
       <c r="D61" t="s">
         <v>178</v>
       </c>
@@ -13448,7 +13467,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:9">
       <c r="D62" t="s">
         <v>179</v>
       </c>
@@ -13468,7 +13487,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:9">
       <c r="D63" t="s">
         <v>180</v>
       </c>
@@ -13488,7 +13507,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:9">
       <c r="D64" t="s">
         <v>181</v>
       </c>
@@ -13508,7 +13527,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:9">
       <c r="D65" t="s">
         <v>182</v>
       </c>
@@ -13528,7 +13547,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:9">
       <c r="D66" t="s">
         <v>183</v>
       </c>
@@ -13548,7 +13567,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:9">
       <c r="D67" t="s">
         <v>184</v>
       </c>
@@ -13568,7 +13587,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:9">
       <c r="D68" t="s">
         <v>185</v>
       </c>
@@ -13588,7 +13607,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:9">
       <c r="D69" t="s">
         <v>186</v>
       </c>
@@ -13608,7 +13627,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:9">
       <c r="D70" t="s">
         <v>187</v>
       </c>
@@ -13628,7 +13647,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:9">
       <c r="D71" t="s">
         <v>188</v>
       </c>
@@ -13648,7 +13667,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:9">
       <c r="D72" t="s">
         <v>189</v>
       </c>
@@ -13668,7 +13687,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:9">
       <c r="D73" t="s">
         <v>190</v>
       </c>
@@ -13688,7 +13707,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:9">
       <c r="D74" t="s">
         <v>191</v>
       </c>
@@ -13708,7 +13727,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:9">
       <c r="D75" t="s">
         <v>192</v>
       </c>
@@ -13728,7 +13747,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:9">
       <c r="D76" t="s">
         <v>193</v>
       </c>
@@ -13748,7 +13767,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:9">
       <c r="D77" t="s">
         <v>194</v>
       </c>
@@ -13768,7 +13787,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:9">
       <c r="D78" t="s">
         <v>195</v>
       </c>
@@ -13788,7 +13807,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:9">
       <c r="D79" t="s">
         <v>111</v>
       </c>
@@ -13808,7 +13827,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:9">
       <c r="D80" t="s">
         <v>196</v>
       </c>
@@ -13828,7 +13847,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:9">
       <c r="D81" t="s">
         <v>197</v>
       </c>
@@ -13848,7 +13867,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:9">
       <c r="D82" t="s">
         <v>198</v>
       </c>
@@ -13868,7 +13887,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:9">
       <c r="D83" t="s">
         <v>199</v>
       </c>
@@ -13888,7 +13907,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:9">
       <c r="D84" t="s">
         <v>200</v>
       </c>
@@ -13908,7 +13927,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:9">
       <c r="D85" t="s">
         <v>201</v>
       </c>
@@ -13928,7 +13947,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:9">
       <c r="D86" t="s">
         <v>202</v>
       </c>
@@ -13948,7 +13967,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:9">
       <c r="D87" t="s">
         <v>203</v>
       </c>
@@ -13968,7 +13987,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:9">
       <c r="D88" t="s">
         <v>204</v>
       </c>
@@ -13988,13 +14007,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:9">
       <c r="F89" s="1"/>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:9">
       <c r="F93" s="1"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:6">
       <c r="F108" s="1"/>
     </row>
   </sheetData>
@@ -14007,11 +14026,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B22" workbookViewId="0">
       <selection activeCell="I243" sqref="I2:I243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="49.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.36328125" bestFit="1" customWidth="1"/>
@@ -14022,12 +14041,12 @@
     <col min="8" max="8" width="2.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9">
       <c r="C1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>231</v>
       </c>
@@ -14054,7 +14073,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Board","Wood",5))</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9">
       <c r="B3" t="s">
         <v>231</v>
       </c>
@@ -14081,7 +14100,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Bucket","Board",5))</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
         <v>231</v>
       </c>
@@ -14108,7 +14127,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Bucket","Iron",1))</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9">
       <c r="B5" t="s">
         <v>231</v>
       </c>
@@ -14135,7 +14154,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Grape Juice","Glass Bottle",1))</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9">
       <c r="B6" t="s">
         <v>231</v>
       </c>
@@ -14162,7 +14181,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Grape Juice","Grapes",200))</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9">
       <c r="B7" t="s">
         <v>231</v>
       </c>
@@ -14189,7 +14208,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Iron Cup","Iron",3))</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9">
       <c r="B8" t="s">
         <v>231</v>
       </c>
@@ -14216,7 +14235,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Iron Cup","Stone",1))</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9">
       <c r="B9" t="s">
         <v>231</v>
       </c>
@@ -14243,7 +14262,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Leather","Hide",2))</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9">
       <c r="B10" t="s">
         <v>231</v>
       </c>
@@ -14270,7 +14289,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wine","Glass Bottle",1))</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9">
       <c r="B11" t="s">
         <v>231</v>
       </c>
@@ -14297,7 +14316,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wine","Grapes",100))</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9">
       <c r="B12" t="s">
         <v>231</v>
       </c>
@@ -14324,7 +14343,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wood Plank","Board",4))</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9">
       <c r="B13" t="s">
         <v>231</v>
       </c>
@@ -14351,7 +14370,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wood Plank","Nails",4))</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9">
       <c r="B14" t="s">
         <v>231</v>
       </c>
@@ -14378,7 +14397,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wooden Box","Nails",6))</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9">
       <c r="B15" t="s">
         <v>231</v>
       </c>
@@ -14405,7 +14424,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wooden Box","Wood Plank",6))</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9">
       <c r="B16" t="s">
         <v>231</v>
       </c>
@@ -14432,7 +14451,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Parchment","Fern Leaf",3))</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9">
       <c r="B17" t="s">
         <v>231</v>
       </c>
@@ -14459,7 +14478,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Hammer","Board",1))</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9">
       <c r="B18" t="s">
         <v>231</v>
       </c>
@@ -14486,7 +14505,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Hammer","Iron",1))</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9">
       <c r="B19" t="s">
         <v>231</v>
       </c>
@@ -14513,7 +14532,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Hammer","Mushroom Paste",1))</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9">
       <c r="B20" t="s">
         <v>231</v>
       </c>
@@ -14540,7 +14559,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Purple Parchment","Purple Flower",3))</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9">
       <c r="B21" t="s">
         <v>231</v>
       </c>
@@ -14567,7 +14586,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"White Parchment","Feathers",3))</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9">
       <c r="B22" t="s">
         <v>231</v>
       </c>
@@ -14594,7 +14613,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Axe","Board",1))</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9">
       <c r="B23" t="s">
         <v>231</v>
       </c>
@@ -14621,7 +14640,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Axe","Iron",1))</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9">
       <c r="B24" t="s">
         <v>231</v>
       </c>
@@ -14648,7 +14667,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Axe","Mushroom Paste",1))</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9">
       <c r="B25" t="s">
         <v>231</v>
       </c>
@@ -14675,7 +14694,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Axe","Nails",2))</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9">
       <c r="B26" t="s">
         <v>231</v>
       </c>
@@ -14702,7 +14721,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Axe","Stone",1))</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9">
       <c r="B27" t="s">
         <v>231</v>
       </c>
@@ -14729,7 +14748,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Broom","Board",1))</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9">
       <c r="B28" t="s">
         <v>231</v>
       </c>
@@ -14756,7 +14775,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Broom","Straw",1))</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9">
       <c r="B29" t="s">
         <v>231</v>
       </c>
@@ -14783,7 +14802,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Mushroom Paste","Mushroom",3))</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9">
       <c r="B30" t="s">
         <v>231</v>
       </c>
@@ -14810,7 +14829,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Iron Ring","Iron",2))</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9">
       <c r="B31" t="s">
         <v>231</v>
       </c>
@@ -14837,7 +14856,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Iron Ring","Stone",1))</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9">
       <c r="B32" t="s">
         <v>231</v>
       </c>
@@ -14864,7 +14883,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Shimmer Stone","Unpolished Shimmer Stone",2))</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9">
       <c r="B33" t="s">
         <v>231</v>
       </c>
@@ -14891,7 +14910,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Shovel","Board",1))</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9">
       <c r="B34" t="s">
         <v>231</v>
       </c>
@@ -14918,7 +14937,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Shovel","Iron",2))</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9">
       <c r="B35" t="s">
         <v>231</v>
       </c>
@@ -14945,7 +14964,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Shovel","Mushroom Paste",1))</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9">
       <c r="B36" t="s">
         <v>231</v>
       </c>
@@ -14972,7 +14991,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Shovel","Stone",1))</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9">
       <c r="B37" t="s">
         <v>231</v>
       </c>
@@ -14999,7 +15018,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Amethyst Necklace","Amethyst",1))</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9">
       <c r="B38" t="s">
         <v>231</v>
       </c>
@@ -15026,7 +15045,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Amethyst Necklace","Iron Ring",2))</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
         <v>231</v>
       </c>
@@ -15053,7 +15072,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Aquamarine Ring","Aquamarine",1))</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9">
       <c r="B40" t="s">
         <v>231</v>
       </c>
@@ -15080,7 +15099,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Aquamarine Ring","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9">
       <c r="B41" t="s">
         <v>231</v>
       </c>
@@ -15107,7 +15126,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Aquamarine Ring","Mushroom Paste",1))</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9">
       <c r="B42" t="s">
         <v>231</v>
       </c>
@@ -15134,7 +15153,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Glass Bottle","Glass Orb",1))</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9">
       <c r="B43" t="s">
         <v>231</v>
       </c>
@@ -15161,7 +15180,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Glass Bottle","Stone",1))</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9">
       <c r="B44" t="s">
         <v>231</v>
       </c>
@@ -15188,7 +15207,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Glass Orb","Shimmer Stone",2))</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9">
       <c r="B45" t="s">
         <v>231</v>
       </c>
@@ -15215,7 +15234,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Glass Orb","Stone",1))</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9">
       <c r="B46" t="s">
         <v>231</v>
       </c>
@@ -15242,7 +15261,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Dye","Fern Leaf",6))</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9">
       <c r="B47" t="s">
         <v>231</v>
       </c>
@@ -15269,7 +15288,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Dye","Glass Bottle",1))</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9">
       <c r="B48" t="s">
         <v>231</v>
       </c>
@@ -15296,7 +15315,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lemonade","Glass Bottle",1))</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9">
       <c r="B49" t="s">
         <v>231</v>
       </c>
@@ -15323,7 +15342,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lemonade","Lemon",6))</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9">
       <c r="B50" t="s">
         <v>231</v>
       </c>
@@ -15350,7 +15369,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Orange Juice","Glass Bottle",1))</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9">
       <c r="B51" t="s">
         <v>231</v>
       </c>
@@ -15377,7 +15396,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Orange Juice","Orange",6))</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9">
       <c r="B52" t="s">
         <v>231</v>
       </c>
@@ -15404,7 +15423,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Twine","Straw",2))</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9">
       <c r="B53" t="s">
         <v>231</v>
       </c>
@@ -15431,7 +15450,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Twine","Wood",1))</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9">
       <c r="B54" t="s">
         <v>231</v>
       </c>
@@ -15458,7 +15477,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Diary","Green Parchment",1))</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9">
       <c r="B55" t="s">
         <v>231</v>
       </c>
@@ -15485,7 +15504,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Diary","Mushroom Paste",1))</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9">
       <c r="B56" t="s">
         <v>231</v>
       </c>
@@ -15512,7 +15531,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Diary","White Parchment",1))</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9">
       <c r="B57" t="s">
         <v>231</v>
       </c>
@@ -15539,7 +15558,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Purple Diary","Mushroom Paste",1))</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9">
       <c r="B58" t="s">
         <v>231</v>
       </c>
@@ -15566,7 +15585,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Purple Diary","Purple Parchment",1))</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9">
       <c r="B59" t="s">
         <v>231</v>
       </c>
@@ -15593,7 +15612,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Purple Diary","White Parchment",1))</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9">
       <c r="B60" t="s">
         <v>231</v>
       </c>
@@ -15620,7 +15639,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lemon Quartz Ring","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9">
       <c r="B61" t="s">
         <v>231</v>
       </c>
@@ -15647,7 +15666,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lemon Quartz Ring","Lemon Quartz",1))</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9">
       <c r="B62" t="s">
         <v>231</v>
       </c>
@@ -15674,7 +15693,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lemon Quartz Ring","Mushroom Paste",1))</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9">
       <c r="B63" t="s">
         <v>231</v>
       </c>
@@ -15701,7 +15720,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Sturdy Box","Iron",2))</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9">
       <c r="B64" t="s">
         <v>231</v>
       </c>
@@ -15728,7 +15747,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Sturdy Box","Nails",6))</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9">
       <c r="B65" t="s">
         <v>231</v>
       </c>
@@ -15755,7 +15774,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Sturdy Box","Wood Plank",6))</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9">
       <c r="B66" t="s">
         <v>231</v>
       </c>
@@ -15782,7 +15801,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Coin Purse","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9">
       <c r="B67" t="s">
         <v>231</v>
       </c>
@@ -15809,7 +15828,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Coin Purse","Leather",2))</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9">
       <c r="B68" t="s">
         <v>231</v>
       </c>
@@ -15836,7 +15855,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Leather Diary","Leather",1))</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9">
       <c r="B69" t="s">
         <v>231</v>
       </c>
@@ -15863,7 +15882,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Leather Diary","Mushroom Paste",1))</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9">
       <c r="B70" t="s">
         <v>231</v>
       </c>
@@ -15890,7 +15909,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Leather Diary","White Parchment",1))</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9">
       <c r="B71" t="s">
         <v>231</v>
       </c>
@@ -15917,7 +15936,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Looking Glass","Board",3))</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9">
       <c r="B72" t="s">
         <v>231</v>
       </c>
@@ -15944,7 +15963,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Looking Glass","Glass Orb",1))</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9">
       <c r="B73" t="s">
         <v>231</v>
       </c>
@@ -15971,7 +15990,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Looking Glass","Iron",1))</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9">
       <c r="B74" t="s">
         <v>231</v>
       </c>
@@ -15998,7 +16017,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Ruby","Stone",1))</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9">
       <c r="B75" t="s">
         <v>231</v>
       </c>
@@ -16025,7 +16044,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Ruby","Unpolished Ruby",2))</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9">
       <c r="B76" t="s">
         <v>231</v>
       </c>
@@ -16052,7 +16071,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Ladder","Board",6))</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9">
       <c r="B77" t="s">
         <v>231</v>
       </c>
@@ -16079,7 +16098,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Ladder","Nails",8))</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9">
       <c r="B78" t="s">
         <v>231</v>
       </c>
@@ -16106,7 +16125,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Emerald","Stone",2))</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9">
       <c r="B79" t="s">
         <v>231</v>
       </c>
@@ -16133,7 +16152,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Emerald","Unpolished Emerald",2))</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9">
       <c r="B80" t="s">
         <v>231</v>
       </c>
@@ -16160,7 +16179,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Ruby Ring","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9">
       <c r="B81" t="s">
         <v>231</v>
       </c>
@@ -16187,7 +16206,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Ruby Ring","Mushroom Paste",1))</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9">
       <c r="B82" t="s">
         <v>231</v>
       </c>
@@ -16214,7 +16233,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Ruby Ring","Ruby",1))</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9">
       <c r="B83" t="s">
         <v>231</v>
       </c>
@@ -16241,7 +16260,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wooden Barrel","Board",10))</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9">
       <c r="B84" t="s">
         <v>231</v>
       </c>
@@ -16268,7 +16287,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wooden Barrel","Iron",4))</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9">
       <c r="B85" t="s">
         <v>231</v>
       </c>
@@ -16295,7 +16314,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wooden Barrel","Nails",10))</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9">
       <c r="B86" t="s">
         <v>231</v>
       </c>
@@ -16322,7 +16341,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Black Powder","Coal",3))</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9">
       <c r="B87" t="s">
         <v>231</v>
       </c>
@@ -16349,7 +16368,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Bottle Rocket","Black Powder",1))</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9">
       <c r="B88" t="s">
         <v>231</v>
       </c>
@@ -16376,7 +16395,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Bottle Rocket","Feathers",2))</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9">
       <c r="B89" t="s">
         <v>231</v>
       </c>
@@ -16403,7 +16422,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Bottle Rocket","Wood",3))</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9">
       <c r="B90" t="s">
         <v>231</v>
       </c>
@@ -16430,7 +16449,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wooden Shield","Iron",1))</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9">
       <c r="B91" t="s">
         <v>231</v>
       </c>
@@ -16457,7 +16476,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wooden Shield","Nails",4))</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9">
       <c r="B92" t="s">
         <v>231</v>
       </c>
@@ -16484,7 +16503,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wooden Shield","Wood Plank",1))</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9">
       <c r="B93" t="s">
         <v>231</v>
       </c>
@@ -16511,7 +16530,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Explosive","Black Powder",2))</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:9">
       <c r="B94" t="s">
         <v>231</v>
       </c>
@@ -16538,7 +16557,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Explosive","Board",3))</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:9">
       <c r="B95" t="s">
         <v>231</v>
       </c>
@@ -16565,7 +16584,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Explosive","Feathers",1))</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9">
       <c r="B96" t="s">
         <v>231</v>
       </c>
@@ -16592,7 +16611,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Explosive","Nails",6))</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:9">
       <c r="B97" t="s">
         <v>231</v>
       </c>
@@ -16619,7 +16638,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Emerald Ring","Emerald",1))</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:9">
       <c r="B98" t="s">
         <v>231</v>
       </c>
@@ -16646,7 +16665,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Emerald Ring","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:9">
       <c r="B99" t="s">
         <v>231</v>
       </c>
@@ -16673,7 +16692,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Emerald Ring","Mushroom Paste",1))</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9">
       <c r="B100" t="s">
         <v>231</v>
       </c>
@@ -16700,7 +16719,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Steel","Carbon Sphere",1))</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9">
       <c r="B101" t="s">
         <v>231</v>
       </c>
@@ -16727,7 +16746,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Steel","Glass Orb",1))</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:9">
       <c r="B102" t="s">
         <v>231</v>
       </c>
@@ -16754,7 +16773,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Steel","Iron",10))</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9">
       <c r="B103" t="s">
         <v>231</v>
       </c>
@@ -16781,7 +16800,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Horn Canteen","Horn",1))</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:9">
       <c r="B104" t="s">
         <v>231</v>
       </c>
@@ -16808,7 +16827,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Horn Canteen","Iron Ring",2))</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:9">
       <c r="B105" t="s">
         <v>231</v>
       </c>
@@ -16835,7 +16854,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Horn Canteen","Twine",1))</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:9">
       <c r="B106" t="s">
         <v>231</v>
       </c>
@@ -16862,7 +16881,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Horn Canteen","Wood",1))</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:9">
       <c r="B107" t="s">
         <v>231</v>
       </c>
@@ -16889,7 +16908,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Pearl Necklace","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:9">
       <c r="B108" t="s">
         <v>231</v>
       </c>
@@ -16916,7 +16935,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Pearl Necklace","Pearl",1))</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:9">
       <c r="B109" t="s">
         <v>231</v>
       </c>
@@ -16943,7 +16962,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Pearl Necklace","Twine",1))</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:9">
       <c r="B110" t="s">
         <v>231</v>
       </c>
@@ -16970,7 +16989,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Leather Bag","Iron Ring",4))</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:9">
       <c r="B111" t="s">
         <v>231</v>
       </c>
@@ -16997,7 +17016,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Leather Bag","Leather",2))</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:9">
       <c r="B112" t="s">
         <v>231</v>
       </c>
@@ -17024,7 +17043,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Leather Bag","Twine",2))</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:9">
       <c r="B113" t="s">
         <v>231</v>
       </c>
@@ -17051,7 +17070,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wizard Hat","Leather",2))</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:9">
       <c r="B114" t="s">
         <v>231</v>
       </c>
@@ -17078,7 +17097,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wizard Hat","Purple Flower",10))</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:9">
       <c r="B115" t="s">
         <v>231</v>
       </c>
@@ -17105,7 +17124,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wizard Hat","Twine",3))</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:9">
       <c r="B116" t="s">
         <v>231</v>
       </c>
@@ -17132,7 +17151,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Leather Waterskin","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:9">
       <c r="B117" t="s">
         <v>231</v>
       </c>
@@ -17159,7 +17178,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Leather Waterskin","Leather",2))</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:9">
       <c r="B118" t="s">
         <v>231</v>
       </c>
@@ -17186,7 +17205,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Leather Waterskin","Twine",2))</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:9">
       <c r="B119" t="s">
         <v>231</v>
       </c>
@@ -17213,7 +17232,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Rope","Twine",3))</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:9">
       <c r="B120" t="s">
         <v>231</v>
       </c>
@@ -17240,7 +17259,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Fishing Net","Antler",1))</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:9">
       <c r="B121" t="s">
         <v>231</v>
       </c>
@@ -17267,7 +17286,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Fishing Net","Iron",4))</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:9">
       <c r="B122" t="s">
         <v>231</v>
       </c>
@@ -17294,7 +17313,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Fishing Net","Rope",2))</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:9">
       <c r="B123" t="s">
         <v>231</v>
       </c>
@@ -17321,7 +17340,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Shimmer Topaz","Shimmer Quartz",3))</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:9">
       <c r="B124" t="s">
         <v>231</v>
       </c>
@@ -17348,7 +17367,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Sturdy Shield","Iron",6))</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:9">
       <c r="B125" t="s">
         <v>231</v>
       </c>
@@ -17375,7 +17394,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Sturdy Shield","Nails",6))</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:9">
       <c r="B126" t="s">
         <v>231</v>
       </c>
@@ -17402,7 +17421,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Sturdy Shield","Wood Plank",1))</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:9">
       <c r="B127" t="s">
         <v>231</v>
       </c>
@@ -17429,7 +17448,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Magicite","Prism Shard",3))</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:9">
       <c r="B128" t="s">
         <v>231</v>
       </c>
@@ -17456,7 +17475,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Inferno Sphere","Runestone 01",1))</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:9">
       <c r="B129" t="s">
         <v>231</v>
       </c>
@@ -17483,7 +17502,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Inferno Sphere","Runestone 02",1))</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:9">
       <c r="B130" t="s">
         <v>231</v>
       </c>
@@ -17510,7 +17529,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Inferno Sphere","Runestone 03",1))</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:9">
       <c r="B131" t="s">
         <v>231</v>
       </c>
@@ -17537,7 +17556,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Inferno Sphere","Runestone 04",1))</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:9">
       <c r="B132" t="s">
         <v>231</v>
       </c>
@@ -17564,7 +17583,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Inferno Sphere","Runestone 05",1))</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:9">
       <c r="B133" t="s">
         <v>231</v>
       </c>
@@ -17591,7 +17610,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Inferno Sphere","Runestone 06",1))</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:9">
       <c r="B134" t="s">
         <v>231</v>
       </c>
@@ -17618,7 +17637,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Inferno Sphere","Runestone 07",1))</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:9">
       <c r="B135" t="s">
         <v>231</v>
       </c>
@@ -17645,7 +17664,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Inferno Sphere","Runestone 08",1))</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:9">
       <c r="B136" t="s">
         <v>231</v>
       </c>
@@ -17672,7 +17691,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Inferno Sphere","Runestone 09",1))</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:9">
       <c r="B137" t="s">
         <v>231</v>
       </c>
@@ -17699,7 +17718,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Inferno Sphere","Runestone 10",1))</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:9">
       <c r="B138" t="s">
         <v>231</v>
       </c>
@@ -17726,7 +17745,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Mystic Ring","Aquamarine",1))</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:9">
       <c r="B139" t="s">
         <v>231</v>
       </c>
@@ -17753,7 +17772,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Mystic Ring","Emerald",2))</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:9">
       <c r="B140" t="s">
         <v>231</v>
       </c>
@@ -17780,7 +17799,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Mystic Ring","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:9">
       <c r="B141" t="s">
         <v>231</v>
       </c>
@@ -17807,7 +17826,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Mystic Ring","Mushroom Paste",3))</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:9">
       <c r="B142" t="s">
         <v>231</v>
       </c>
@@ -17834,7 +17853,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Mystic Ring","Stone",1))</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:9">
       <c r="B143" t="s">
         <v>231</v>
       </c>
@@ -17861,7 +17880,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Horseshoe","Iron",5))</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:9">
       <c r="B144" t="s">
         <v>231</v>
       </c>
@@ -17888,7 +17907,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Horseshoe","Nails",7))</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:9">
       <c r="B145" t="s">
         <v>231</v>
       </c>
@@ -17915,7 +17934,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Horseshoe","Stone",2))</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:9">
       <c r="B146" t="s">
         <v>231</v>
       </c>
@@ -17942,7 +17961,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Magnifying Glass","Board",1))</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:9">
       <c r="B147" t="s">
         <v>231</v>
       </c>
@@ -17969,7 +17988,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Magnifying Glass","Glass Orb",1))</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:9">
       <c r="B148" t="s">
         <v>231</v>
       </c>
@@ -17996,7 +18015,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Magnifying Glass","Iron",3))</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:9">
       <c r="B149" t="s">
         <v>231</v>
       </c>
@@ -18023,7 +18042,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Magnifying Glass","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:9">
       <c r="B150" t="s">
         <v>231</v>
       </c>
@@ -18050,7 +18069,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Shimmer Ring","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:9">
       <c r="B151" t="s">
         <v>231</v>
       </c>
@@ -18077,7 +18096,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Shimmer Ring","Mushroom Paste",1))</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:9">
       <c r="B152" t="s">
         <v>231</v>
       </c>
@@ -18104,7 +18123,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Shimmer Ring","Shimmer Topaz",1))</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:9">
       <c r="B153" t="s">
         <v>231</v>
       </c>
@@ -18131,7 +18150,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wooden Sword","Board",1))</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:9">
       <c r="B154" t="s">
         <v>231</v>
       </c>
@@ -18158,7 +18177,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wooden Sword","Iron",2))</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:9">
       <c r="B155" t="s">
         <v>231</v>
       </c>
@@ -18185,7 +18204,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wooden Sword","Twine",4))</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:9">
       <c r="B156" t="s">
         <v>231</v>
       </c>
@@ -18212,7 +18231,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Apple Cider","Apple",100))</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:9">
       <c r="B157" t="s">
         <v>231</v>
       </c>
@@ -18239,7 +18258,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Apple Cider","Glass Bottle",1))</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:9">
       <c r="B158" t="s">
         <v>231</v>
       </c>
@@ -18266,7 +18285,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Apple Cider","Orange",1))</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:9">
       <c r="B159" t="s">
         <v>231</v>
       </c>
@@ -18293,7 +18312,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Scarf","Green Dye",1))</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:9">
       <c r="B160" t="s">
         <v>231</v>
       </c>
@@ -18320,7 +18339,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Scarf","Yarn",2))</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:9">
       <c r="B161" t="s">
         <v>231</v>
       </c>
@@ -18347,7 +18366,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Shield","Green Dye",1))</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:9">
       <c r="B162" t="s">
         <v>231</v>
       </c>
@@ -18374,7 +18393,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Shield","Iron",3))</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:9">
       <c r="B163" t="s">
         <v>231</v>
       </c>
@@ -18401,7 +18420,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Shield","Wooden Shield",1))</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:9">
       <c r="B164" t="s">
         <v>231</v>
       </c>
@@ -18428,7 +18447,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wagon Wheel","Board",12))</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:9">
       <c r="B165" t="s">
         <v>231</v>
       </c>
@@ -18455,7 +18474,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Wagon Wheel","Nails",14))</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:9">
       <c r="B166" t="s">
         <v>231</v>
       </c>
@@ -18482,7 +18501,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Treasure Chest","Iron",12))</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:9">
       <c r="B167" t="s">
         <v>231</v>
       </c>
@@ -18509,7 +18528,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Treasure Chest","Nails",22))</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:9">
       <c r="B168" t="s">
         <v>231</v>
       </c>
@@ -18536,7 +18555,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Treasure Chest","Wood Plank",6))</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:9">
       <c r="B169" t="s">
         <v>231</v>
       </c>
@@ -18563,7 +18582,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Jade","Stone",1))</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:9">
       <c r="B170" t="s">
         <v>231</v>
       </c>
@@ -18590,7 +18609,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Jade","Unpolished Jade",2))</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:9">
       <c r="B171" t="s">
         <v>231</v>
       </c>
@@ -18617,7 +18636,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lava Sphere","Runestone 11",1))</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:9">
       <c r="B172" t="s">
         <v>231</v>
       </c>
@@ -18644,7 +18663,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lava Sphere","Runestone 12",1))</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:9">
       <c r="B173" t="s">
         <v>231</v>
       </c>
@@ -18671,7 +18690,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lava Sphere","Runestone 13",1))</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:9">
       <c r="B174" t="s">
         <v>231</v>
       </c>
@@ -18698,7 +18717,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lava Sphere","Runestone 14",1))</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:9">
       <c r="B175" t="s">
         <v>231</v>
       </c>
@@ -18725,7 +18744,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lava Sphere","Runestone 15",1))</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:9">
       <c r="B176" t="s">
         <v>231</v>
       </c>
@@ -18752,7 +18771,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lava Sphere","Runestone 16",1))</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:9">
       <c r="B177" t="s">
         <v>231</v>
       </c>
@@ -18779,7 +18798,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lava Sphere","Runestone 17",1))</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:9">
       <c r="B178" t="s">
         <v>231</v>
       </c>
@@ -18806,7 +18825,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lava Sphere","Runestone 18",1))</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:9">
       <c r="B179" t="s">
         <v>231</v>
       </c>
@@ -18833,7 +18852,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lava Sphere","Runestone 19",1))</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:9">
       <c r="B180" t="s">
         <v>231</v>
       </c>
@@ -18860,7 +18879,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lava Sphere","Runestone 20",1))</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:9">
       <c r="B181" t="s">
         <v>231</v>
       </c>
@@ -18887,7 +18906,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Scissors","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:9">
       <c r="B182" t="s">
         <v>231</v>
       </c>
@@ -18914,7 +18933,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Scissors","Nails",1))</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:9">
       <c r="B183" t="s">
         <v>231</v>
       </c>
@@ -18941,7 +18960,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Scissors","Steel",2))</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:9">
       <c r="B184" t="s">
         <v>231</v>
       </c>
@@ -18968,7 +18987,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Scissors","Stone",1))</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:9">
       <c r="B185" t="s">
         <v>231</v>
       </c>
@@ -18995,7 +19014,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Scissors","Wood",2))</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:9">
       <c r="B186" t="s">
         <v>231</v>
       </c>
@@ -19022,7 +19041,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Jade Charm","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:9">
       <c r="B187" t="s">
         <v>231</v>
       </c>
@@ -19049,7 +19068,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Jade Charm","Jade",1))</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:9">
       <c r="B188" t="s">
         <v>231</v>
       </c>
@@ -19076,7 +19095,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Jade Charm","Steel",2))</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:9">
       <c r="B189" t="s">
         <v>231</v>
       </c>
@@ -19103,7 +19122,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Jade Charm","Stone",6))</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:9">
       <c r="B190" t="s">
         <v>231</v>
       </c>
@@ -19130,7 +19149,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Garnet","Stone",1))</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:9">
       <c r="B191" t="s">
         <v>231</v>
       </c>
@@ -19157,7 +19176,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Garnet","Unpolished Garnet",2))</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:9">
       <c r="B192" t="s">
         <v>231</v>
       </c>
@@ -19184,7 +19203,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Sand","Leather",1))</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:9">
       <c r="B193" t="s">
         <v>231</v>
       </c>
@@ -19211,7 +19230,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Sand","Sandstone",5))</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:9">
       <c r="B194" t="s">
         <v>231</v>
       </c>
@@ -19238,7 +19257,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Sturdy Sword","Iron",2))</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:9">
       <c r="B195" t="s">
         <v>231</v>
       </c>
@@ -19265,7 +19284,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Sturdy Sword","Leather",1))</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:9">
       <c r="B196" t="s">
         <v>231</v>
       </c>
@@ -19292,7 +19311,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Sturdy Sword","Mushroom Paste",1))</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:9">
       <c r="B197" t="s">
         <v>231</v>
       </c>
@@ -19319,7 +19338,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Sturdy Sword","Steel",1))</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:9">
       <c r="B198" t="s">
         <v>231</v>
       </c>
@@ -19346,7 +19365,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Fancy Pipe","Iron",1))</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:9">
       <c r="B199" t="s">
         <v>231</v>
       </c>
@@ -19373,7 +19392,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Fancy Pipe","Iron Ring",3))</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:9">
       <c r="B200" t="s">
         <v>231</v>
       </c>
@@ -19400,7 +19419,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Fancy Pipe","Wood",2))</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:9">
       <c r="B201" t="s">
         <v>231</v>
       </c>
@@ -19427,7 +19446,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Flywheel","Small Gear",1))</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:9">
       <c r="B202" t="s">
         <v>231</v>
       </c>
@@ -19454,7 +19473,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Flywheel","Small Screw",7))</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:9">
       <c r="B203" t="s">
         <v>231</v>
       </c>
@@ -19481,7 +19500,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Flywheel","Steel",20))</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:9">
       <c r="B204" t="s">
         <v>231</v>
       </c>
@@ -19508,7 +19527,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Steel Wire","Carbon Sphere",1))</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:9">
       <c r="B205" t="s">
         <v>231</v>
       </c>
@@ -19535,7 +19554,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Steel Wire","Iron",10))</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:9">
       <c r="B206" t="s">
         <v>231</v>
       </c>
@@ -19562,7 +19581,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Steel Wire","Stone",1))</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:9">
       <c r="B207" t="s">
         <v>231</v>
       </c>
@@ -19589,7 +19608,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Garnet Ring","Garnet",1))</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:9">
       <c r="B208" t="s">
         <v>231</v>
       </c>
@@ -19616,7 +19635,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Garnet Ring","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:9">
       <c r="B209" t="s">
         <v>231</v>
       </c>
@@ -19643,7 +19662,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Garnet Ring","Mushroom Paste",1))</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:9">
       <c r="B210" t="s">
         <v>231</v>
       </c>
@@ -19670,7 +19689,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Cloak","Cotton",1))</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:9">
       <c r="B211" t="s">
         <v>231</v>
       </c>
@@ -19697,7 +19716,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Cloak","Green Dye",10))</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:9">
       <c r="B212" t="s">
         <v>231</v>
       </c>
@@ -19724,7 +19743,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Cloak","Leather",5))</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:9">
       <c r="B213" t="s">
         <v>231</v>
       </c>
@@ -19751,7 +19770,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Green Cloak","Twine",10))</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:9">
       <c r="B214" t="s">
         <v>231</v>
       </c>
@@ -19778,7 +19797,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Hourglass","Glass Bottle",2))</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:9">
       <c r="B215" t="s">
         <v>231</v>
       </c>
@@ -19805,7 +19824,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Hourglass","Mushroom Paste",2))</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:9">
       <c r="B216" t="s">
         <v>231</v>
       </c>
@@ -19832,7 +19851,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Hourglass","Sand",1))</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:9">
       <c r="B217" t="s">
         <v>231</v>
       </c>
@@ -19859,7 +19878,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Hourglass","Wood",6))</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:9">
       <c r="B218" t="s">
         <v>231</v>
       </c>
@@ -19886,7 +19905,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Magna Core","Cogwheel",3))</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:9">
       <c r="B219" t="s">
         <v>231</v>
       </c>
@@ -19913,7 +19932,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Magna Core","Flywheel",2))</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:9">
       <c r="B220" t="s">
         <v>231</v>
       </c>
@@ -19940,7 +19959,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Magna Core","Magna Quartz",25))</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:9">
       <c r="B221" t="s">
         <v>231</v>
       </c>
@@ -19967,7 +19986,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Magna Core","Seeing Stone",1))</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:9">
       <c r="B222" t="s">
         <v>231</v>
       </c>
@@ -19994,7 +20013,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Magna Core","Small Screw",10))</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:9">
       <c r="B223" t="s">
         <v>231</v>
       </c>
@@ -20021,7 +20040,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Magna Core","Small Spring",5))</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:9">
       <c r="B224" t="s">
         <v>231</v>
       </c>
@@ -20048,7 +20067,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Magna Core","Steel",40))</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:9">
       <c r="B225" t="s">
         <v>231</v>
       </c>
@@ -20075,7 +20094,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Unpolished Shimmer Stone","Emberstone",1))</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:9">
       <c r="B226" t="s">
         <v>231</v>
       </c>
@@ -20102,7 +20121,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Unpolished Shimmer Stone","Sandstone",1))</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:9">
       <c r="B227" t="s">
         <v>231</v>
       </c>
@@ -20129,7 +20148,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Compass","Aquamarine",1))</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:9">
       <c r="B228" t="s">
         <v>231</v>
       </c>
@@ -20156,7 +20175,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Compass","Glass Orb",1))</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:9">
       <c r="B229" t="s">
         <v>231</v>
       </c>
@@ -20183,7 +20202,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Compass","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:9">
       <c r="B230" t="s">
         <v>231</v>
       </c>
@@ -20210,7 +20229,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Compass","Magna Core",1))</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:9">
       <c r="B231" t="s">
         <v>231</v>
       </c>
@@ -20237,7 +20256,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Compass","Ruby",1))</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:9">
       <c r="B232" t="s">
         <v>231</v>
       </c>
@@ -20264,7 +20283,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Compass","Small Screw",4))</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:9">
       <c r="B233" t="s">
         <v>231</v>
       </c>
@@ -20291,7 +20310,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Compass","Twine",1))</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:9">
       <c r="B234" t="s">
         <v>231</v>
       </c>
@@ -20318,7 +20337,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Compass","Wood",2))</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:9">
       <c r="B235" t="s">
         <v>231</v>
       </c>
@@ -20345,7 +20364,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lantern","Coal",1))</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:9">
       <c r="B236" t="s">
         <v>231</v>
       </c>
@@ -20372,7 +20391,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lantern","Glass Bottle",1))</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:9">
       <c r="B237" t="s">
         <v>231</v>
       </c>
@@ -20399,7 +20418,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lantern","Iron",3))</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:9">
       <c r="B238" t="s">
         <v>231</v>
       </c>
@@ -20426,7 +20445,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lantern","Iron Ring",1))</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:9">
       <c r="B239" t="s">
         <v>231</v>
       </c>
@@ -20453,7 +20472,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Lantern","Twine",2))</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:9">
       <c r="B240" t="s">
         <v>231</v>
       </c>
@@ -20480,7 +20499,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Fancy Guitar","Iron",4))</v>
       </c>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:9">
       <c r="B241" t="s">
         <v>231</v>
       </c>
@@ -20507,7 +20526,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Fancy Guitar","Mushroom Paste",3))</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:9">
       <c r="B242" t="s">
         <v>231</v>
       </c>
@@ -20534,7 +20553,7 @@
         <v>finishRequirementDatabase.insert(FinishRequirement(0,"Fancy Guitar","Oak",5))</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:9">
       <c r="B243" t="s">
         <v>231</v>
       </c>
@@ -20575,9 +20594,9 @@
       <selection activeCell="F6" sqref="F6:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:9">
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -20592,7 +20611,7 @@
         <v>Pepper Seed</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:9">
       <c r="D7" t="s">
         <v>15</v>
       </c>
@@ -20607,7 +20626,7 @@
         <v>Carrot Seed</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:9">
       <c r="D8" t="s">
         <v>16</v>
       </c>
@@ -20622,7 +20641,7 @@
         <v>Pea Seed</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:9">
       <c r="D9" t="s">
         <v>17</v>
       </c>
@@ -20637,7 +20656,7 @@
         <v>Cucumber Seed</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:9">
       <c r="D10" t="s">
         <v>18</v>
       </c>
@@ -20652,7 +20671,7 @@
         <v>Eggplant Seed</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:9">
       <c r="D11" t="s">
         <v>19</v>
       </c>
@@ -20667,7 +20686,7 @@
         <v>Radish Seed</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:9">
       <c r="D12" t="s">
         <v>20</v>
       </c>
@@ -20682,7 +20701,7 @@
         <v>Onion Seed</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:9">
       <c r="D13" t="s">
         <v>21</v>
       </c>
@@ -20697,7 +20716,7 @@
         <v>Hops Seed</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:9">
       <c r="D14" t="s">
         <v>22</v>
       </c>
@@ -20712,7 +20731,7 @@
         <v>Patato Seed</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:9">
       <c r="D15" t="s">
         <v>23</v>
       </c>
@@ -20727,7 +20746,7 @@
         <v>Tomato Seed</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:9">
       <c r="D16" t="s">
         <v>24</v>
       </c>
@@ -20742,7 +20761,7 @@
         <v>Leek Seed</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:9">
       <c r="D17" t="s">
         <v>25</v>
       </c>
@@ -20757,7 +20776,7 @@
         <v>Watermelon Seed</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:9">
       <c r="D18" t="s">
         <v>26</v>
       </c>
@@ -20772,7 +20791,7 @@
         <v>Corn Seed</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:9">
       <c r="D19" t="s">
         <v>27</v>
       </c>
@@ -20787,7 +20806,7 @@
         <v>Cabbage Seed</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:9">
       <c r="D20" t="s">
         <v>28</v>
       </c>
@@ -20802,7 +20821,7 @@
         <v>Pumpkin Seed</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:9">
       <c r="D21" t="s">
         <v>29</v>
       </c>
@@ -20817,7 +20836,7 @@
         <v>Wheat Seed</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:9">
       <c r="D22" t="s">
         <v>30</v>
       </c>
@@ -20832,7 +20851,7 @@
         <v>Broccoli Seed</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:9">
       <c r="D23" t="s">
         <v>31</v>
       </c>
@@ -20847,7 +20866,7 @@
         <v>Cotton Seed</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:9">
       <c r="D24" t="s">
         <v>32</v>
       </c>
@@ -20862,7 +20881,7 @@
         <v>Sunflower Seed</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:9">
       <c r="D25" t="s">
         <v>33</v>
       </c>
@@ -20880,4 +20899,1222 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F4:H102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H102" sqref="H4:H102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="4" spans="6:8">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="str">
+        <f>CONCATENATE(F4,G4)</f>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8">
+      <c r="F5" s="4">
+        <v>1250</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H68" si="0">CONCATENATE(F5,G5)</f>
+        <v>1250,</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8">
+      <c r="F6" s="4">
+        <v>3750</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>3750,</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8">
+      <c r="F7" s="4">
+        <v>7250</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>7250,</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
+      <c r="F8" s="4">
+        <v>11750</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>11750,</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9" s="4">
+        <v>17750</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>17750,</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" s="4">
+        <v>25250</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>25250,</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11" s="4">
+        <v>34250</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>34250,</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" s="4">
+        <v>45250</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>45250,</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8">
+      <c r="F13" s="4">
+        <v>58250</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>58250,</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="F14" s="4">
+        <v>71399</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>71399,</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" s="4">
+        <v>98983</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>98983,</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
+      <c r="F16" s="4">
+        <v>115359</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>115359,</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" s="4">
+        <v>133634</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>133634,</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" s="4">
+        <v>154028</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>154028,</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" s="4">
+        <v>176787</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>176787,</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" s="4">
+        <v>202186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>202186,</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" s="4">
+        <v>230531</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>230531,</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" s="4">
+        <v>262164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>262164,</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" s="4">
+        <v>297466</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>297466,</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" s="4">
+        <v>336863</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>336863,</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25" s="4">
+        <v>380830</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>380830,</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26" s="4">
+        <v>429897</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>429897,</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27" s="4">
+        <v>484655</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>484655,</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8">
+      <c r="F28" s="4">
+        <v>545764</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>545764,</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8">
+      <c r="F29" s="4">
+        <v>613961</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>613961,</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8">
+      <c r="F30" s="4">
+        <v>690068</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>690068,</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8">
+      <c r="F31" s="4">
+        <v>775003</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>775003,</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8">
+      <c r="F32" s="4">
+        <v>869790</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>869790,</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="4">
+        <v>975572</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>975572,</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="4">
+        <v>1093624</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>1093624,</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="F35" s="4">
+        <v>1225370</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>1225370,</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8">
+      <c r="F36" s="4">
+        <v>1372398</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>1372398,</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8">
+      <c r="F37" s="4">
+        <v>1536481</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>1536481,</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8">
+      <c r="F38" s="4">
+        <v>1700564</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>1700564,</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8">
+      <c r="F39" s="4">
+        <v>1883680</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>1883680,</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8">
+      <c r="F40" s="4">
+        <v>2088037</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>2088037,</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8">
+      <c r="F41" s="4">
+        <v>2316099</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>2316099,</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8">
+      <c r="F42" s="4">
+        <v>2570616</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>2570616,</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8">
+      <c r="F43" s="4">
+        <v>2854656</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>2854656,</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8">
+      <c r="F44" s="4">
+        <v>3171644</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>3171644,</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8">
+      <c r="F45" s="4">
+        <v>3525402</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>3525402,</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8">
+      <c r="F46" s="4">
+        <v>3920195</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>3920195,</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8">
+      <c r="F47" s="4">
+        <v>4360783</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>4360783,</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8">
+      <c r="F48" s="4">
+        <v>4852479</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>4852479,</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8">
+      <c r="F49" s="4">
+        <v>5401211</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>5401211,</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8">
+      <c r="F50" s="4">
+        <v>6013595</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>6013595,</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8">
+      <c r="F51" s="4">
+        <v>6697015</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>6697015,</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8">
+      <c r="F52" s="4">
+        <v>7459711</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>7459711,</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8">
+      <c r="F53" s="4">
+        <v>8310879</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>8310879,</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8">
+      <c r="F54" s="4">
+        <v>9260782</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>9260782,</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8">
+      <c r="F55" s="4">
+        <v>10320873</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>10320873,</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" s="4">
+        <v>11503934</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>11503934,</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8">
+      <c r="F57" s="4">
+        <v>12824230</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>12824230,</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8">
+      <c r="F58" s="4">
+        <v>14297680</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>14297680,</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8">
+      <c r="F59" s="4">
+        <v>15942050</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>15942050,</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8">
+      <c r="F60" s="4">
+        <v>17777166</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>17777166,</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8">
+      <c r="F61" s="4">
+        <v>19825155</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>19825155,</v>
+      </c>
+    </row>
+    <row r="62" spans="6:8">
+      <c r="F62" s="4">
+        <v>22110710</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>22110710,</v>
+      </c>
+    </row>
+    <row r="63" spans="6:8">
+      <c r="F63" s="4">
+        <v>24661389</v>
+      </c>
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>24661389,</v>
+      </c>
+    </row>
+    <row r="64" spans="6:8">
+      <c r="F64" s="4">
+        <v>27507946</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>27507946,</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8">
+      <c r="F65" s="4">
+        <v>30684703</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>30684703,</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8">
+      <c r="F66" s="4">
+        <v>34229963</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>34229963,</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8">
+      <c r="F67" s="4">
+        <v>38186473</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="0"/>
+        <v>38186473,</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8">
+      <c r="F68" s="4">
+        <v>42601938</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="0"/>
+        <v>42601938,</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8">
+      <c r="F69" s="4">
+        <v>47529596</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" ref="H69:H102" si="1">CONCATENATE(F69,G69)</f>
+        <v>47529596,</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8">
+      <c r="F70" s="4">
+        <v>53666776</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v>53666776,</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8">
+      <c r="F71" s="4">
+        <v>60515868</v>
+      </c>
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v>60515868,</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8">
+      <c r="F72" s="4">
+        <v>68159454</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v>68159454,</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8">
+      <c r="F73" s="4">
+        <v>76689695</v>
+      </c>
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v>76689695,</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8">
+      <c r="F74" s="4">
+        <v>86209443</v>
+      </c>
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="1"/>
+        <v>86209443,</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8">
+      <c r="F75" s="4">
+        <v>96833481</v>
+      </c>
+      <c r="G75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="1"/>
+        <v>96833481,</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8">
+      <c r="F76" s="4">
+        <v>108689907</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v>108689907,</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8">
+      <c r="F77" s="4">
+        <v>121921678</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="1"/>
+        <v>121921678,</v>
+      </c>
+    </row>
+    <row r="78" spans="6:8">
+      <c r="F78" s="4">
+        <v>136688334</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="1"/>
+        <v>136688334,</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8">
+      <c r="F79" s="4">
+        <v>153167922</v>
+      </c>
+      <c r="G79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v>153167922,</v>
+      </c>
+    </row>
+    <row r="80" spans="6:8">
+      <c r="F80" s="4">
+        <v>171559142</v>
+      </c>
+      <c r="G80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v>171559142,</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8">
+      <c r="F81" s="4">
+        <v>192083743</v>
+      </c>
+      <c r="G81" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="1"/>
+        <v>192083743,</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8">
+      <c r="F82" s="4">
+        <v>214989197</v>
+      </c>
+      <c r="G82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="1"/>
+        <v>214989197,</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8">
+      <c r="F83" s="4">
+        <v>240551683</v>
+      </c>
+      <c r="G83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="1"/>
+        <v>240551683,</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8">
+      <c r="F84" s="4">
+        <v>269079417</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="1"/>
+        <v>269079417,</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8">
+      <c r="F85" s="4">
+        <v>300916368</v>
+      </c>
+      <c r="G85" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v>300916368,</v>
+      </c>
+    </row>
+    <row r="86" spans="6:8">
+      <c r="F86" s="4">
+        <v>336446405</v>
+      </c>
+      <c r="G86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="1"/>
+        <v>336446405,</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8">
+      <c r="F87" s="4">
+        <v>376097926</v>
+      </c>
+      <c r="G87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="1"/>
+        <v>376097926,</v>
+      </c>
+    </row>
+    <row r="88" spans="6:8">
+      <c r="F88" s="4">
+        <v>420349023</v>
+      </c>
+      <c r="G88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="1"/>
+        <v>420349023,</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8">
+      <c r="F89" s="4">
+        <v>469733247</v>
+      </c>
+      <c r="G89" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="1"/>
+        <v>469733247,</v>
+      </c>
+    </row>
+    <row r="90" spans="6:8">
+      <c r="F90" s="4">
+        <v>524846040</v>
+      </c>
+      <c r="G90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="1"/>
+        <v>524846040,</v>
+      </c>
+    </row>
+    <row r="91" spans="6:8">
+      <c r="F91" s="4">
+        <v>586351916</v>
+      </c>
+      <c r="G91" t="s">
+        <v>37</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="1"/>
+        <v>586351916,</v>
+      </c>
+    </row>
+    <row r="92" spans="6:8">
+      <c r="F92" s="4">
+        <v>654992473</v>
+      </c>
+      <c r="G92" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="1"/>
+        <v>654992473,</v>
+      </c>
+    </row>
+    <row r="93" spans="6:8">
+      <c r="F93" s="4">
+        <v>731595334</v>
+      </c>
+      <c r="G93" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="1"/>
+        <v>731595334,</v>
+      </c>
+    </row>
+    <row r="94" spans="6:8">
+      <c r="F94" s="4">
+        <v>817084126</v>
+      </c>
+      <c r="G94" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="1"/>
+        <v>817084126,</v>
+      </c>
+    </row>
+    <row r="95" spans="6:8">
+      <c r="F95" s="4">
+        <v>912489617</v>
+      </c>
+      <c r="G95" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="1"/>
+        <v>912489617,</v>
+      </c>
+    </row>
+    <row r="96" spans="6:8">
+      <c r="F96" s="4">
+        <v>1018962144</v>
+      </c>
+      <c r="G96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="1"/>
+        <v>1018962144,</v>
+      </c>
+    </row>
+    <row r="97" spans="6:8">
+      <c r="F97" s="4">
+        <v>1137785484</v>
+      </c>
+      <c r="G97" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="1"/>
+        <v>1137785484,</v>
+      </c>
+    </row>
+    <row r="98" spans="6:8">
+      <c r="F98" s="4">
+        <v>1270392331</v>
+      </c>
+      <c r="G98" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="1"/>
+        <v>1270392331,</v>
+      </c>
+    </row>
+    <row r="99" spans="6:8">
+      <c r="F99" s="4">
+        <v>1418381572</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="1"/>
+        <v>1418381572,</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8">
+      <c r="F100" s="4">
+        <v>1583537564</v>
+      </c>
+      <c r="G100" t="s">
+        <v>37</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="1"/>
+        <v>1583537564,</v>
+      </c>
+    </row>
+    <row r="101" spans="6:8">
+      <c r="F101" s="4">
+        <v>1767851651</v>
+      </c>
+      <c r="G101" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="1"/>
+        <v>1767851651,</v>
+      </c>
+    </row>
+    <row r="102" spans="6:8">
+      <c r="F102" s="4">
+        <v>2000000000</v>
+      </c>
+      <c r="G102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="1"/>
+        <v>2000000000,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>